--- a/image/claimresponse.xlsx
+++ b/image/claimresponse.xlsx
@@ -1932,44 +1932,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="52.80078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/claimresponse.xlsx
+++ b/image/claimresponse.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="579">
   <si>
     <t>Path</t>
   </si>
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -572,10 +572,6 @@
   </si>
   <si>
     <t>ClaimResponse.disposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Disposition Message</t>
@@ -1932,44 +1928,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="52.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4277,17 +4273,17 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -4351,7 +4347,7 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -4362,7 +4358,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4385,19 +4381,19 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -4446,7 +4442,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -4472,7 +4468,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4495,17 +4491,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4554,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4606,14 +4602,14 @@
         <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4641,11 +4637,11 @@
         <v>132</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4662,7 +4658,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4688,7 +4684,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4711,17 +4707,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4770,7 +4766,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4782,7 +4778,7 @@
         <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
@@ -4796,7 +4792,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4819,13 +4815,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4876,33 +4872,33 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4931,7 +4927,7 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>97</v>
@@ -4984,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -5005,16 +5001,16 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5036,10 +5032,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -5094,7 +5090,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -5120,7 +5116,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5143,17 +5139,17 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -5202,7 +5198,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>49</v>
@@ -5228,7 +5224,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5251,17 +5247,17 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5310,7 +5306,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5336,7 +5332,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5359,17 +5355,17 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -5418,7 +5414,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>49</v>
@@ -5430,7 +5426,7 @@
         <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>42</v>
@@ -5444,7 +5440,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5467,13 +5463,13 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5524,33 +5520,33 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5579,7 +5575,7 @@
         <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>97</v>
@@ -5632,7 +5628,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5653,16 +5649,16 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5684,10 +5680,10 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>97</v>
@@ -5742,7 +5738,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5768,7 +5764,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5794,16 +5790,16 @@
         <v>122</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5831,11 +5827,11 @@
         <v>132</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>49</v>
@@ -5878,7 +5874,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5904,16 +5900,16 @@
         <v>122</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5941,11 +5937,11 @@
         <v>132</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5962,7 +5958,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5988,7 +5984,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6011,19 +6007,19 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -6072,7 +6068,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -6098,7 +6094,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6121,19 +6117,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6182,7 +6178,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -6208,7 +6204,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6231,17 +6227,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6290,7 +6286,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6302,7 +6298,7 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>42</v>
@@ -6316,7 +6312,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6339,13 +6335,13 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6396,33 +6392,33 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6451,7 +6447,7 @@
         <v>95</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>97</v>
@@ -6504,7 +6500,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6525,16 +6521,16 @@
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6556,10 +6552,10 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>97</v>
@@ -6614,7 +6610,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6640,7 +6636,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6663,17 +6659,17 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6722,7 +6718,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>49</v>
@@ -6748,7 +6744,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6771,17 +6767,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6830,7 +6826,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6856,7 +6852,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6882,10 +6878,10 @@
         <v>42</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6936,7 +6932,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>49</v>
@@ -6962,7 +6958,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6985,17 +6981,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -7044,7 +7040,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -7056,7 +7052,7 @@
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>42</v>
@@ -7070,7 +7066,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7093,13 +7089,13 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7150,33 +7146,33 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7205,7 +7201,7 @@
         <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>97</v>
@@ -7258,7 +7254,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7279,16 +7275,16 @@
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7310,10 +7306,10 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>97</v>
@@ -7368,7 +7364,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7417,17 +7413,17 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7476,7 +7472,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>49</v>
@@ -7502,7 +7498,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7525,17 +7521,17 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7584,7 +7580,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7610,7 +7606,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7636,10 +7632,10 @@
         <v>42</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7690,7 +7686,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7716,7 +7712,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7739,17 +7735,17 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7798,7 +7794,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7810,7 +7806,7 @@
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
@@ -7824,7 +7820,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7847,13 +7843,13 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7904,33 +7900,33 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7959,7 +7955,7 @@
         <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>97</v>
@@ -8012,7 +8008,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -8033,16 +8029,16 @@
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8064,10 +8060,10 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>97</v>
@@ -8122,7 +8118,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -8148,7 +8144,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8171,17 +8167,17 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8230,7 +8226,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -8256,7 +8252,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8279,17 +8275,17 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8338,7 +8334,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8364,7 +8360,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8387,17 +8383,17 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8446,7 +8442,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8472,7 +8468,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8498,14 +8494,14 @@
         <v>161</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8554,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8580,7 +8576,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8606,16 +8602,16 @@
         <v>122</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8643,11 +8639,11 @@
         <v>132</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8664,7 +8660,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>49</v>
@@ -8690,7 +8686,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8716,16 +8712,16 @@
         <v>122</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8753,11 +8749,11 @@
         <v>132</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8774,7 +8770,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8795,12 +8791,12 @@
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8826,16 +8822,16 @@
         <v>122</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8863,11 +8859,11 @@
         <v>132</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8884,7 +8880,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8905,12 +8901,12 @@
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8933,17 +8929,17 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8992,7 +8988,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -9010,15 +9006,15 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9041,17 +9037,17 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9079,54 +9075,54 @@
         <v>132</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9149,17 +9145,17 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9208,7 +9204,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -9229,12 +9225,12 @@
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9257,17 +9253,17 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9316,7 +9312,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9342,7 +9338,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9365,19 +9361,19 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9426,7 +9422,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9452,7 +9448,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9475,19 +9471,19 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9536,7 +9532,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9557,12 +9553,12 @@
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9588,16 +9584,16 @@
         <v>122</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9625,11 +9621,11 @@
         <v>132</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9672,7 +9668,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9698,14 +9694,14 @@
         <v>122</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9733,11 +9729,11 @@
         <v>132</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9780,7 +9776,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9803,17 +9799,17 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9862,7 +9858,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9888,7 +9884,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9914,10 +9910,10 @@
         <v>42</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9968,7 +9964,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>49</v>
@@ -9994,7 +9990,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10017,13 +10013,13 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10074,7 +10070,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -10086,7 +10082,7 @@
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>42</v>
@@ -10100,7 +10096,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10123,13 +10119,13 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10180,33 +10176,33 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10235,7 +10231,7 @@
         <v>95</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>97</v>
@@ -10288,7 +10284,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10309,16 +10305,16 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10340,10 +10336,10 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>97</v>
@@ -10398,7 +10394,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10424,7 +10420,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10450,16 +10446,16 @@
         <v>122</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10487,11 +10483,11 @@
         <v>132</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
       </c>
@@ -10508,7 +10504,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>49</v>
@@ -10534,7 +10530,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10560,16 +10556,16 @@
         <v>122</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10597,11 +10593,11 @@
         <v>132</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10639,12 +10635,12 @@
         <v>42</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10667,17 +10663,17 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -10726,7 +10722,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10747,12 +10743,12 @@
         <v>42</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10775,17 +10771,17 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -10834,7 +10830,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10860,7 +10856,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10883,19 +10879,19 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -10944,7 +10940,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10970,7 +10966,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10993,19 +10989,19 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -11054,7 +11050,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11075,12 +11071,12 @@
         <v>42</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11103,17 +11099,17 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11162,7 +11158,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11188,7 +11184,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11214,10 +11210,10 @@
         <v>42</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11268,7 +11264,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>49</v>
@@ -11294,7 +11290,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11317,13 +11313,13 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11374,7 +11370,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11386,7 +11382,7 @@
         <v>42</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>42</v>
@@ -11400,7 +11396,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11423,13 +11419,13 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11480,33 +11476,33 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11535,7 +11531,7 @@
         <v>95</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>97</v>
@@ -11588,7 +11584,7 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11609,16 +11605,16 @@
         <v>42</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11640,10 +11636,10 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>97</v>
@@ -11698,7 +11694,7 @@
         <v>42</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11724,7 +11720,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11750,16 +11746,16 @@
         <v>122</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -11787,11 +11783,11 @@
         <v>132</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11808,7 +11804,7 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>49</v>
@@ -11834,7 +11830,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11860,16 +11856,16 @@
         <v>122</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -11897,11 +11893,11 @@
         <v>132</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>42</v>
       </c>
@@ -11918,7 +11914,7 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11939,12 +11935,12 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11967,17 +11963,17 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
@@ -12026,7 +12022,7 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -12047,12 +12043,12 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12075,17 +12071,17 @@
         <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
@@ -12134,7 +12130,7 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12160,7 +12156,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12183,19 +12179,19 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>42</v>
@@ -12244,7 +12240,7 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12270,7 +12266,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12293,19 +12289,19 @@
         <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>42</v>
@@ -12354,7 +12350,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12375,12 +12371,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12403,17 +12399,17 @@
         <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -12462,7 +12458,7 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12488,7 +12484,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12514,10 +12510,10 @@
         <v>42</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12568,7 +12564,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>49</v>
@@ -12594,7 +12590,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12620,14 +12616,14 @@
         <v>42</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -12676,7 +12672,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12702,7 +12698,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12725,19 +12721,19 @@
         <v>50</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -12786,7 +12782,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12798,7 +12794,7 @@
         <v>42</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>42</v>
@@ -12812,7 +12808,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12835,13 +12831,13 @@
         <v>42</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12892,33 +12888,33 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12947,7 +12943,7 @@
         <v>95</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>97</v>
@@ -13000,7 +12996,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -13021,16 +13017,16 @@
         <v>42</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13052,10 +13048,10 @@
         <v>94</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>97</v>
@@ -13110,7 +13106,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -13136,7 +13132,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13162,16 +13158,16 @@
         <v>122</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
@@ -13199,11 +13195,11 @@
         <v>132</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>42</v>
       </c>
@@ -13220,7 +13216,7 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>49</v>
@@ -13246,7 +13242,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13269,17 +13265,17 @@
         <v>50</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
@@ -13328,7 +13324,7 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>49</v>
@@ -13354,7 +13350,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13377,17 +13373,17 @@
         <v>42</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>42</v>
@@ -13436,7 +13432,7 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13448,7 +13444,7 @@
         <v>42</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
@@ -13462,7 +13458,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13485,13 +13481,13 @@
         <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13542,33 +13538,33 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13597,7 +13593,7 @@
         <v>95</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>97</v>
@@ -13650,7 +13646,7 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -13671,16 +13667,16 @@
         <v>42</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13702,10 +13698,10 @@
         <v>94</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>97</v>
@@ -13760,7 +13756,7 @@
         <v>42</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13786,7 +13782,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13812,14 +13808,14 @@
         <v>122</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -13847,11 +13843,11 @@
         <v>132</v>
       </c>
       <c r="X110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y110" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y110" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="Z110" t="s" s="2">
         <v>42</v>
       </c>
@@ -13868,7 +13864,7 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>49</v>
@@ -13894,7 +13890,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13917,19 +13913,19 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -13978,7 +13974,7 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -14004,7 +14000,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14030,14 +14026,14 @@
         <v>122</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
@@ -14065,11 +14061,11 @@
         <v>132</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y112" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y112" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="Z112" t="s" s="2">
         <v>42</v>
       </c>
@@ -14086,7 +14082,7 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -14112,7 +14108,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14135,17 +14131,17 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>42</v>
@@ -14194,7 +14190,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -14220,7 +14216,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14243,17 +14239,17 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>42</v>
@@ -14302,7 +14298,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>49</v>
@@ -14328,7 +14324,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14354,16 +14350,16 @@
         <v>105</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>42</v>
@@ -14412,7 +14408,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14438,7 +14434,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14464,16 +14460,16 @@
         <v>122</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
@@ -14501,11 +14497,11 @@
         <v>132</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y116" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z116" t="s" s="2">
         <v>42</v>
       </c>
@@ -14522,7 +14518,7 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14548,7 +14544,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14574,16 +14570,16 @@
         <v>122</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -14611,11 +14607,11 @@
         <v>132</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="Z117" t="s" s="2">
         <v>42</v>
       </c>
@@ -14632,7 +14628,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14658,7 +14654,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14681,19 +14677,19 @@
         <v>42</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -14742,7 +14738,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14768,7 +14764,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14791,17 +14787,17 @@
         <v>42</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -14850,7 +14846,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14862,7 +14858,7 @@
         <v>42</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>42</v>
@@ -14876,7 +14872,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14899,13 +14895,13 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14956,33 +14952,33 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15011,7 +15007,7 @@
         <v>95</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>97</v>
@@ -15064,7 +15060,7 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -15085,16 +15081,16 @@
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15116,10 +15112,10 @@
         <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>97</v>
@@ -15174,7 +15170,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15200,7 +15196,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15223,17 +15219,17 @@
         <v>42</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15282,7 +15278,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15308,7 +15304,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15334,14 +15330,14 @@
         <v>68</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15369,11 +15365,11 @@
         <v>116</v>
       </c>
       <c r="X124" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y124" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Y124" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
       </c>
@@ -15390,7 +15386,7 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15416,7 +15412,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15439,17 +15435,17 @@
         <v>42</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -15498,7 +15494,7 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>49</v>
@@ -15524,7 +15520,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15550,16 +15546,16 @@
         <v>122</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>42</v>
@@ -15608,7 +15604,7 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15634,7 +15630,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15657,19 +15653,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K127" t="s" s="2">
+      <c r="L127" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -15718,7 +15714,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -15744,7 +15740,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15767,19 +15763,19 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>42</v>
@@ -15828,7 +15824,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15840,7 +15836,7 @@
         <v>42</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>42</v>
@@ -15849,12 +15845,12 @@
         <v>42</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15877,13 +15873,13 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15934,33 +15930,33 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15989,7 +15985,7 @@
         <v>95</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>97</v>
@@ -16042,7 +16038,7 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -16063,16 +16059,16 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16094,10 +16090,10 @@
         <v>94</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>97</v>
@@ -16152,7 +16148,7 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -16178,7 +16174,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16201,17 +16197,17 @@
         <v>42</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>42</v>
@@ -16260,7 +16256,7 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>49</v>
@@ -16286,7 +16282,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16309,19 +16305,19 @@
         <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -16370,7 +16366,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>49</v>
@@ -16396,7 +16392,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16419,17 +16415,17 @@
         <v>42</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>42</v>
@@ -16478,7 +16474,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>49</v>
@@ -16504,7 +16500,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16527,17 +16523,17 @@
         <v>42</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -16586,7 +16582,7 @@
         <v>42</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16612,7 +16608,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16635,19 +16631,19 @@
         <v>42</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -16696,7 +16692,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -16722,7 +16718,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16745,19 +16741,19 @@
         <v>42</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>42</v>
@@ -16806,7 +16802,7 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16818,7 +16814,7 @@
         <v>42</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>42</v>
@@ -16832,7 +16828,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16855,13 +16851,13 @@
         <v>42</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16912,33 +16908,33 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL138" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16967,7 +16963,7 @@
         <v>95</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>97</v>
@@ -17020,7 +17016,7 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -17041,16 +17037,16 @@
         <v>42</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17072,10 +17068,10 @@
         <v>94</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>97</v>
@@ -17130,7 +17126,7 @@
         <v>42</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -17156,7 +17152,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17179,17 +17175,17 @@
         <v>42</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -17238,7 +17234,7 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -17264,7 +17260,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17287,17 +17283,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17346,7 +17342,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17372,7 +17368,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17395,17 +17391,17 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -17454,7 +17450,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17480,7 +17476,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17506,14 +17502,14 @@
         <v>122</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -17541,11 +17537,11 @@
         <v>132</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
       </c>
@@ -17562,7 +17558,7 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>49</v>
